--- a/1_ Centralized multi-unit recording system/Calculations/Budget Calculations.xlsx
+++ b/1_ Centralized multi-unit recording system/Calculations/Budget Calculations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://creaf-my.sharepoint.com/personal/m_pou_creaf_uab_cat/Documents/Documentos/1st Chapter_Parental care_Automated camera system/Supporting information/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpou\Desktop\git-chapter3\1_ Centralized multi-unit recording system\Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{BCDB7210-6EE6-4F63-B65C-4AFDCDFCB59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFC51D15-A0A4-4D75-8CC3-6F1B7677FECF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC7F5D9-0926-455B-AB62-A3DCBFFE0D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3900" windowWidth="29040" windowHeight="15720" xr2:uid="{AA69E26A-A6B4-4DFE-92F9-668E082D107E}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>Solar powering system</t>
   </si>
   <si>
-    <t xml:space="preserve">*Note that most of the costs are associated with the powering system. See power consumption calculation file to calculate the needed size of the powering system to recalculate the system final cost with the according battery/solar panels. </t>
-  </si>
-  <si>
     <t>RPi Zero 2W</t>
   </si>
   <si>
@@ -293,12 +290,6 @@
     <t>https://www.amazon.es/TUOFENG-el%C3%A9ctrico-Conector-Resistente-temperaturas/dp/B0792Y7RHP/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=7IWL6U7UPGSV&amp;keywords=22+awg+wire&amp;qid=1644573485&amp;s=industrial&amp;sprefix=22+awg+wire%2Cindustrial%2C246&amp;sr=1-18</t>
   </si>
   <si>
-    <t>Buck converter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.es/Senven%C2%AE-Regulador-Eficiencia-Converter-Ajustable/dp/B07RLPW7PT/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=T7MWSRGFTLUN&amp;keywords=buck+converter+5v&amp;qid=1645222549&amp;sprefix=buck+converter+5v%2Caps%2C84&amp;sr=8-22</t>
-  </si>
-  <si>
     <t>Relay 16 channels</t>
   </si>
   <si>
@@ -320,9 +311,6 @@
     <t xml:space="preserve">It was glued on the camera hole in the nest box to protect the electronics from the birds. </t>
   </si>
   <si>
-    <t>Termoretractil tubes</t>
-  </si>
-  <si>
     <t>https://www.amazon.es/Juego-20-tubos-termorretr%C3%A1ctiles-Isolatech/dp/B094QN5ZDD/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=28SKYTPEQTBWZ&amp;keywords=tubo%2Btermoretractil%2B22awg&amp;qid=1647596810&amp;sprefix=tubo%2Btermoretractil%2B22awg%2Caps%2C86&amp;sr=8-17&amp;th=1</t>
   </si>
   <si>
@@ -336,6 +324,18 @@
   </si>
   <si>
     <t>Thin plastic box for dust protection</t>
+  </si>
+  <si>
+    <t>Heat shrink sleeves</t>
+  </si>
+  <si>
+    <t>Buck converters LM2596</t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Coverter-Binghe-Converter-Reductor-Ajustable/dp/B0D7BWSTCX/ref=sr_1_9?adgrpid=55805776946&amp;dib=eyJ2IjoiMSJ9.1o49n3Vlgy-XOiQThc4OilHXk2pTdJD87r_RfiKzzULfy-s-JEDW-3sjrd1fb9Ni5TjxtYk7-pA8pGGW5aO67O4Ra-hGmwwJimgXqvY7rcXOu0MYCjF_KTliggxfl6G17loPBRqSRA_PP4cnEdnBA1Yh8N7Zf3gt12OM_uj332dME4m2ScHZHu9QpO8-0SqIsybKozAFu6zwe50gsT9fqGFtfF7EoK4g8e10__gY2DWaWgpxBH7IK6WUmUOY72t05QfZ6ZphiUOHJQ39S0Ub6XXAEylVaTq3LJm9oJVcAAZn-PCH_Mm-D4xDogkBIQk5DNtK3r9v8vdRneTrYJzdIWfl2C5AHzmPqr8uEsZEWhzGto95HCoOeFhxSOexcj6hQ8mcoytfM0l9fWk-53Jeiv2jMXb5qdmDEUu6tqSdG19oN63B2AowjUziHFh7K8uO.SP2EbCTULKZvVHNdtkffWOJrr0I2OFZDD19L8nj2VVM&amp;dib_tag=se&amp;hvadid=275574720166&amp;hvdev=c&amp;hvlocphy=9216758&amp;hvnetw=g&amp;hvqmt=e&amp;hvrand=14592378148211785845&amp;hvtargid=kwd-299547870431&amp;hydadcr=11243_1749335&amp;keywords=lm2596&amp;qid=1735034440&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Note that big part of the costs are associated with the powering system (specially if less units are used, still similar power costs would be needed). See power consumption calculation file to calculate the needed size of the powering system to recalculate the system final cost with the according battery/solar panels. </t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -484,6 +484,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1050,7 +1051,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1165,12 +1166,12 @@
         <v>684.30000000000007</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
@@ -1179,7 +1180,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8">
         <v>16.899999999999999</v>
@@ -1193,7 +1194,7 @@
         <v>219.7</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="9">
         <f>SUM(G3:G19,G26:G33)</f>
@@ -1202,7 +1203,7 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
@@ -1211,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="8">
         <v>1.45</v>
@@ -1225,7 +1226,7 @@
         <v>18.849999999999998</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="10">
         <f>SUM(K4:K5)</f>
@@ -1235,7 +1236,7 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -1244,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8">
         <v>4.95</v>
@@ -1261,16 +1262,16 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="8">
         <v>15</v>
@@ -1286,16 +1287,16 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="8">
         <v>69.58</v>
@@ -1311,16 +1312,16 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8">
         <v>17.989999999999998</v>
@@ -1334,12 +1335,12 @@
         <v>251.85999999999999</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
@@ -1348,7 +1349,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="8">
         <v>2.35</v>
@@ -1362,13 +1363,13 @@
         <v>2.35</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11" s="13">
         <v>50</v>
@@ -1376,16 +1377,16 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="6">
         <v>13.1</v>
@@ -1397,13 +1398,13 @@
         <v>13.1</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M12" s="13">
         <f>7.5/2</f>
@@ -1412,16 +1413,16 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="8">
         <v>3.98</v>
@@ -1435,13 +1436,13 @@
         <v>51.74</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="13">
         <v>30</v>
@@ -1449,16 +1450,16 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="E14" s="8">
         <f>11.53/10</f>
@@ -1473,13 +1474,13 @@
         <v>16.141999999999999</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14" s="13">
         <v>4.2</v>
@@ -1487,16 +1488,16 @@
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="6">
         <v>12.99</v>
@@ -1508,13 +1509,13 @@
         <v>38.97</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="M15" s="13">
         <v>8.1999999999999993</v>
@@ -1522,16 +1523,16 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="8">
         <f>5.97/575</f>
@@ -1546,13 +1547,13 @@
         <v>0.29071304347826082</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M16" s="19">
         <v>0.5</v>
@@ -1560,16 +1561,16 @@
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="E17" s="8">
         <v>6.49</v>
@@ -1584,16 +1585,16 @@
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="6">
         <v>85.5</v>
@@ -1609,13 +1610,13 @@
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8">
@@ -1631,16 +1632,16 @@
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E20" s="8">
         <v>159.99</v>
@@ -1655,16 +1656,16 @@
     </row>
     <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="E21" s="6">
         <v>154.88</v>
@@ -1678,13 +1679,13 @@
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8">
@@ -1698,21 +1699,21 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="E23" s="8">
         <v>224.99</v>
@@ -1727,16 +1728,16 @@
     </row>
     <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="E24" s="6">
         <v>98.35</v>
@@ -1750,16 +1751,16 @@
     </row>
     <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="E25" s="6">
         <v>44.09</v>
@@ -1773,16 +1774,16 @@
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="E26" s="8">
         <f>15.99/3</f>
@@ -1798,16 +1799,16 @@
     </row>
     <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="E27" s="8">
         <f>14.99/5</f>
@@ -1823,16 +1824,16 @@
     </row>
     <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="E28" s="8">
         <f>25.99/30</f>
@@ -1848,16 +1849,16 @@
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E29" s="8">
         <f>12.52/10</f>
@@ -1874,16 +1875,16 @@
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>88</v>
+        <v>28</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="E30" s="8">
         <v>14.86</v>
@@ -1898,16 +1899,16 @@
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E31" s="8">
         <v>8.99</v>
@@ -1922,16 +1923,16 @@
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E32" s="6">
         <v>18.399999999999999</v>
@@ -1944,21 +1945,21 @@
         <v>18.399999999999999</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E33">
         <v>4.99</v>
@@ -1971,7 +1972,7 @@
         <v>4.99</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2022,17 +2023,18 @@
     <hyperlink ref="D26" r:id="rId17" xr:uid="{377FD583-8CEB-454A-B242-169AEBB212CD}"/>
     <hyperlink ref="D27" r:id="rId18" xr:uid="{4B4E1DFF-1731-4DB9-99BC-8F53EED33CAC}"/>
     <hyperlink ref="D28" r:id="rId19" xr:uid="{DE68E757-2261-4DD9-97D2-EFD4CAEFEC67}"/>
-    <hyperlink ref="D29" r:id="rId20" xr:uid="{C8EE47E4-7DCE-4EDD-B5D2-CAEAE4CBE597}"/>
+    <hyperlink ref="D29" r:id="rId20" display="https://www.amazon.es/Senven%C2%AE-Regulador-Eficiencia-Converter-Ajustable/dp/B07RLPW7PT/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=T7MWSRGFTLUN&amp;keywords=buck+converter+5v&amp;qid=1645222549&amp;sprefix=buck+converter+5v%2Caps%2C84&amp;sr=8-22" xr:uid="{C8EE47E4-7DCE-4EDD-B5D2-CAEAE4CBE597}"/>
     <hyperlink ref="D31" r:id="rId21" xr:uid="{AE96F0C0-FBA2-4E13-86FE-FF5391ABFF05}"/>
     <hyperlink ref="D18" r:id="rId22" display="https://www.amazon.es/HUAWEI-E8372h-320-cualquier-dispositivos-inal%C3%A1mbricos/dp/B08CY7VF3S/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2TK31EYSETKDD&amp;keywords=huawei+4g+wingle+16&amp;qid=1673541740&amp;sprefix=huawei+4g+wingle+16%2Caps%2C99&amp;sr=8-1" xr:uid="{E1C63475-4747-477F-8A51-1F3584F03C0D}"/>
     <hyperlink ref="D24" r:id="rId23" display="https://www.amazon.es/enjoy-solar-monocristalino-Schindel-technologie/dp/B085ZFJ943/ref=PBA-2_3?pd_rd_w=HEyXe&amp;content-id=amzn1.sym.3ef17fdd-1c61-4411-8ddc-94d68f388de0&amp;pf_rd_p=3ef17fdd-1c61-4411-8ddc-94d68f388de0&amp;pf_rd_r=6P4MMN4T9TQV43277KT0&amp;pd_rd_wg=bEvBG&amp;pd_rd_r=aeb8dd74-5ee2-4b76-8835-a729dad77c86&amp;pd_rd_i=B08LGL2NHR&amp;th=1" xr:uid="{3F6280AB-1C1C-4014-9F4A-2E4D9D96C490}"/>
     <hyperlink ref="D25" r:id="rId24" display="https://www.amazon.es/Regulador-epever%C2%AE-vs3024au-Automat-Detecci%C3%B3n/dp/B0782639PX/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2HQVCJ06HKOOL&amp;keywords=controlador+solar+30A&amp;qid=1677572527&amp;sprefix=controlador+solar+30a%2Caps%2C125&amp;sr=8-14" xr:uid="{C8FC50F4-EC4B-4A68-A49C-6D8ABB5190BA}"/>
     <hyperlink ref="D21" r:id="rId25" xr:uid="{B804C7B2-7863-455D-B984-1A488E3140DB}"/>
     <hyperlink ref="D15" r:id="rId26" xr:uid="{EA0AAF1E-39D2-425B-AF22-8CF5D5A0C14D}"/>
+    <hyperlink ref="D30" r:id="rId27" xr:uid="{10B830AB-9F1D-455B-9E3D-77498B69CB54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>